--- a/25-26/Invoices 25-26/20 BK020  September 25-26 CM Stone (dao da tran) Absolute short (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/20 BK020  September 25-26 CM Stone (dao da tran) Absolute short (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\Invoices 25-26\20 BK020  September 25-26 CM Stone (dao da tran) Absolute short (RJSL)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA554CF5-8125-48B4-A4F1-804426A4CB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B3D53-29AB-4A4F-B022-12660EE5F519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
   <si>
     <t>financial year</t>
   </si>
@@ -586,9 +586,6 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Round Off</t>
-  </si>
-  <si>
     <t>GST 0.1%</t>
   </si>
   <si>
@@ -602,21 +599,27 @@
 Phone number: +84983037116</t>
   </si>
   <si>
-    <t>Padma Sai Granites</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sy. No. 18/AA1, 19/EE1, Pallegudem
-Khammam. 
-GST: 36ABAFP7614G1ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nine Thousand Eighty Nine Dollars Only </t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>PO021/25-26</t>
+    <t>OOLU0147257</t>
+  </si>
+  <si>
+    <t>Eight Thousand Ninty Four Dollars and Seventy Eight Cents Only</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>PO021.1/25-26</t>
+  </si>
+  <si>
+    <t>PADMA SAI GRANITES</t>
+  </si>
+  <si>
+    <t>Sy. No. 18/AA1, 19/EE1, Pallegudem
+Khammam. 
+GST 36ABAFP7614G1ZA</t>
   </si>
 </sst>
 </file>
@@ -630,11 +633,18 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1203,420 +1213,421 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,15 +1676,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>43445</xdr:colOff>
+      <xdr:colOff>272045</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>67777</xdr:rowOff>
+      <xdr:rowOff>143977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1702,7 +1713,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3624845" y="7400925"/>
+          <a:off x="3853445" y="7277100"/>
           <a:ext cx="1861555" cy="763102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3094,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3301,11 +3312,11 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>155</v>
+      <c r="B7" s="77" t="s">
+        <v>154</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3333,8 +3344,8 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3361,8 +3372,8 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3389,8 +3400,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3417,8 +3428,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -3445,8 +3456,8 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -3733,7 +3744,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3765,7 +3776,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3828,7 +3839,9 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3858,7 +3871,9 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>562</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3888,7 +3903,9 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15">
+        <v>449.71</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -31297,8 +31314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31320,27 +31337,27 @@
       <c r="A1" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31349,16 +31366,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="87" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="85"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31371,8 +31388,8 @@
         <f>'input data'!B3</f>
         <v>BK020/25-26</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="108">
         <f>'input data'!B4</f>
         <v>45908</v>
@@ -31387,16 +31404,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="87" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="85"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31406,14 +31423,14 @@
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
       <c r="E6" s="103"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="104" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31422,16 +31439,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="87" t="s">
+      <c r="F7" s="83"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="85"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31443,13 +31460,13 @@
       <c r="E8" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31458,16 +31475,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="87" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="85"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31480,65 +31497,65 @@
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="79"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="102" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="79"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="101" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="93" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="str">
+      <c r="A12" s="97" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="99" t="str">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="98" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="96" t="str">
+      <c r="F12" s="76"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="94" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="79"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31547,17 +31564,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="85"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="str">
+      <c r="A15" s="101" t="str">
         <f>'input data'!B7</f>
         <v>CM STONE COMPANY LIMITED
 Address: No 6, niche 33/358 Da Nang, Dong Hai Ward, Hai Phong City, Vietnam
@@ -31565,212 +31582,212 @@
 email: imp@cmstone.co
 Phone number: +84983037116</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="79"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="79"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="79"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="79"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="79"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="84" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="84" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="85"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="90" t="str">
+      <c r="B22" s="81"/>
+      <c r="C22" s="85" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="91" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="91" t="str">
+      <c r="F22" s="76"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="88" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="79"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="89" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="89" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="85"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="103"/>
-      <c r="B25" s="83"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="105" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="105" t="str">
         <f>'input data'!B21</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="105" t="str">
         <f>'input data'!B22</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="87"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="121" t="s">
+      <c r="C26" s="83"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="85"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="87" t="s">
+      <c r="I26" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="85"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="122"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="176" t="s">
+      <c r="G27" s="87"/>
+      <c r="H27" s="73" t="s">
         <v>72</v>
       </c>
       <c r="I27" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="83"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
@@ -31780,25 +31797,25 @@
         <f>'input data'!B18</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="28">
         <v>68022390</v>
       </c>
       <c r="F28" s="113">
         <f>'input data'!B26</f>
-        <v>0</v>
+        <v>449.71</v>
       </c>
-      <c r="G28" s="94"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="72">
         <f>'input data'!B27</f>
         <v>18</v>
       </c>
-      <c r="I28" s="120">
+      <c r="I28" s="119">
         <f>H28*F28</f>
-        <v>0</v>
+        <v>8094.78</v>
       </c>
-      <c r="J28" s="95"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
@@ -31816,21 +31833,19 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="69"/>
-      <c r="H29" s="76" t="s">
-        <v>152</v>
-      </c>
+      <c r="H29" s="120"/>
       <c r="I29" s="69"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="102" t="str">
         <f>UPPER('input data'!B24)</f>
-        <v/>
+        <v>OOLU0147257</v>
       </c>
-      <c r="B30" s="74"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="3">
         <f>'input data'!B25</f>
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>76</v>
@@ -31840,19 +31855,19 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="76"/>
+      <c r="H30" s="120"/>
       <c r="I30" s="69"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="76"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="120"/>
       <c r="I31" s="69"/>
       <c r="J31" s="20"/>
     </row>
@@ -31864,11 +31879,9 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="70"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="120">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J32" s="95"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
@@ -31881,15 +31894,15 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="71"/>
-      <c r="I33" s="119">
+      <c r="I33" s="118">
         <f>SUM(I28:J32)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>8094.78</v>
       </c>
-      <c r="J33" s="85"/>
+      <c r="J33" s="79"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -31898,32 +31911,32 @@
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="83"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="87"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="100" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="85"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="79"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="79"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="19" t="s">
         <v>82</v>
       </c>
@@ -31934,10 +31947,10 @@
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="79"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="19"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -31949,9 +31962,9 @@
       <c r="A38" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31960,10 +31973,10 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="30" t="s">
         <v>84</v>
       </c>
@@ -32932,7 +32945,7 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="60">
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -32953,8 +32966,8 @@
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="I33:J34"/>
     <mergeCell ref="E35:J35"/>
-    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I28:J28"/>
+    <mergeCell ref="H29:H32"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -32979,7 +32992,6 @@
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H29:H32"/>
     <mergeCell ref="A15:D20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
@@ -33010,7 +33022,7 @@
   <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33022,51 +33034,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="87" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="141" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="107" t="str">
         <f>Invoice!E4</f>
         <v>BK020/25-26</v>
       </c>
-      <c r="H3" s="83"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="108">
         <f>Invoice!H4</f>
         <v>45908</v>
@@ -33082,12 +33094,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="85"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -33102,18 +33114,18 @@
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="20"/>
       <c r="G6" s="24"/>
       <c r="H6" s="31"/>
@@ -33183,13 +33195,13 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="18"/>
       <c r="G11" s="35" t="s">
         <v>96</v>
@@ -33199,14 +33211,14 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="str">
+      <c r="A12" s="147" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="4"/>
@@ -33214,11 +33226,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="29"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33226,21 +33238,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="85"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="str">
+      <c r="A15" s="101" t="str">
         <f>Invoice!A15</f>
         <v>CM STONE COMPANY LIMITED
 Address: No 6, niche 33/358 Da Nang, Dong Hai Ward, Hai Phong City, Vietnam
@@ -33248,132 +33260,132 @@
 email: imp@cmstone.co
 Phone number: +84983037116</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="79"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="137" t="s">
+      <c r="A18" s="96"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="138" t="s">
+      <c r="H18" s="79"/>
+      <c r="I18" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="85"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="139" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="139" t="str">
+      <c r="H20" s="87"/>
+      <c r="I20" s="141" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="83"/>
+      <c r="J20" s="87"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="146" t="s">
+      <c r="E21" s="83"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="95"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="103"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="105" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="136" t="str">
+      <c r="E22" s="89"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="138" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="87"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="85"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="42"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
@@ -33381,14 +33393,14 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="103"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="105" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
@@ -33398,40 +33410,40 @@
       <c r="A25" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="126" t="s">
+      <c r="E25" s="83"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="str">
+      <c r="A26" s="90" t="str">
         <f>Invoice!E25</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="92" t="str">
+      <c r="B26" s="76"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="90" t="str">
         <f>Invoice!H25</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="137" t="str">
+      <c r="E26" s="76"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="139" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="85"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
@@ -33452,18 +33464,18 @@
       <c r="B28" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="83"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
       <c r="G28" s="48"/>
       <c r="H28" s="49"/>
       <c r="I28" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="83"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
@@ -33473,20 +33485,20 @@
         <f>Invoice!E28</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="124" t="str">
+      <c r="C29" s="93"/>
+      <c r="D29" s="137" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="125">
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="134">
         <f>Invoice!F28</f>
-        <v>0</v>
+        <v>449.71</v>
       </c>
-      <c r="J29" s="95"/>
+      <c r="J29" s="93"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
@@ -33499,11 +33511,11 @@
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="125">
+      <c r="I30" s="134">
         <f>I29</f>
-        <v>0</v>
+        <v>449.71</v>
       </c>
-      <c r="J30" s="95"/>
+      <c r="J30" s="93"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
@@ -33518,17 +33530,17 @@
       <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="74"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="115" t="s">
+      <c r="D32" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="74"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="31" t="s">
         <v>75</v>
       </c>
@@ -33540,17 +33552,17 @@
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="102" t="str">
         <f>Invoice!A30</f>
-        <v/>
+        <v>OOLU0147257</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="51">
         <f>'input data'!B25</f>
-        <v>0</v>
+        <v>562</v>
       </c>
-      <c r="D33" s="133" t="s">
+      <c r="D33" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="74"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="51" t="s">
         <v>109</v>
       </c>
@@ -33615,64 +33627,64 @@
       <c r="J37" s="56"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="100" t="s">
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="85"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="79"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="79"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="81"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="129"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="127"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132" t="s">
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="87"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34669,6 +34681,11 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="G41:J41"/>
@@ -34679,11 +34696,6 @@
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="G38:J38"/>
     <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -34700,7 +34712,7 @@
   <dimension ref="A1:Y997"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34714,84 +34726,84 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="57"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="169"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="172"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="57"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="175"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="85"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="79"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="83"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -34808,18 +34820,18 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="79"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -34839,10 +34851,10 @@
       <c r="B9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="177">
+      <c r="C9" s="169">
         <v>45908</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="169"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -34857,7 +34869,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -34898,14 +34910,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="143" t="s">
-        <v>156</v>
+      <c r="B13" s="145" t="s">
+        <v>160</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -34913,14 +34925,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="78" t="s">
-        <v>157</v>
+      <c r="B14" s="101" t="s">
+        <v>161</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -34928,12 +34940,12 @@
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -34969,113 +34981,113 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52"/>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="101" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="101" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="95"/>
-      <c r="J18" s="101" t="s">
+      <c r="I18" s="93"/>
+      <c r="J18" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="95"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="101">
-        <v>130.57</v>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="100">
+        <v>103.41</v>
       </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="154">
-        <v>4705.34</v>
+      <c r="G19" s="93"/>
+      <c r="H19" s="156">
+        <v>2419</v>
       </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="159">
+      <c r="I19" s="93"/>
+      <c r="J19" s="161">
         <f>F19*H19</f>
-        <v>614376.24379999994</v>
+        <v>250148.78999999998</v>
       </c>
-      <c r="K19" s="95"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="102"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="147" t="s">
-        <v>153</v>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="149" t="s">
+        <v>152</v>
       </c>
-      <c r="I20" s="148"/>
-      <c r="J20" s="163">
+      <c r="I20" s="150"/>
+      <c r="J20" s="165">
         <f>J19*0.001</f>
-        <v>614.3762438</v>
+        <v>250.14878999999999</v>
       </c>
-      <c r="K20" s="164"/>
+      <c r="K20" s="166"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="32"/>
       <c r="G21" s="62"/>
-      <c r="H21" s="150" t="s">
+      <c r="H21" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152">
+      <c r="I21" s="153"/>
+      <c r="J21" s="154">
         <f>J19+J20</f>
-        <v>614990.62004379998</v>
+        <v>250398.93878999999</v>
       </c>
-      <c r="K21" s="153"/>
+      <c r="K21" s="155"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
       <c r="B22" s="102"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="79"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="94"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="158">
+      <c r="J23" s="160">
         <f>J21</f>
-        <v>614990.62004379998</v>
+        <v>250398.93878999999</v>
       </c>
-      <c r="K23" s="95"/>
+      <c r="K23" s="93"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -35092,10 +35104,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -35216,7 +35228,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="19"/>
       <c r="C33" s="4"/>
@@ -35231,7 +35243,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="19"/>
       <c r="C34" s="4"/>
@@ -35246,37 +35258,37 @@
       <c r="J34" s="4"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
-      <c r="B36" s="142" t="s">
+      <c r="B36" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="37" t="s">
         <v>143</v>
@@ -35294,7 +35306,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="19" t="s">
         <v>144</v>
@@ -35309,7 +35321,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="19"/>
       <c r="C39" s="4"/>
@@ -35322,7 +35334,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="19"/>
       <c r="C40" s="4"/>
@@ -35335,7 +35347,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="30"/>
       <c r="C41" s="32"/>
@@ -35348,13 +35360,17 @@
       <c r="J41" s="32"/>
       <c r="K41" s="29"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/25-26/Invoices 25-26/20 BK020  September 25-26 CM Stone (dao da tran) Absolute short (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/20 BK020  September 25-26 CM Stone (dao da tran) Absolute short (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\Invoices 25-26\20 BK020  September 25-26 CM Stone (dao da tran) Absolute short (RJSL)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B3D53-29AB-4A4F-B022-12660EE5F519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FCD267-02AD-4437-A7D9-427FB0B12455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,9 +605,6 @@
     <t>OOLU0147257</t>
   </si>
   <si>
-    <t>Eight Thousand Ninty Four Dollars and Seventy Eight Cents Only</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
     <t>Sy. No. 18/AA1, 19/EE1, Pallegudem
 Khammam. 
 GST 36ABAFP7614G1ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Thousand thirty dollars and thirty four cents only </t>
   </si>
 </sst>
 </file>
@@ -1370,70 +1370,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1447,43 +1443,92 @@
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1502,104 +1547,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1623,12 +1570,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3105,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3872,7 +3872,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="15">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3904,7 +3904,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="15">
-        <v>449.71</v>
+        <v>446.13</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -31314,8 +31314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31348,16 +31348,16 @@
       <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31366,16 +31366,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="82" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="79"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31388,8 +31388,8 @@
         <f>'input data'!B3</f>
         <v>BK020/25-26</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="108">
         <f>'input data'!B4</f>
         <v>45908</v>
@@ -31404,16 +31404,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="82" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="79"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31422,15 +31422,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="104" t="str">
+      <c r="E6" s="78"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="111" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="87"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31439,16 +31439,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="82" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="79"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31457,16 +31457,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="105" t="s">
+      <c r="F8" s="81"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="87"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31475,16 +31475,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="82" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="79"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31493,69 +31493,69 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="102" t="str">
+      <c r="E10" s="98" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
       <c r="F10" s="76"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="102" t="str">
+      <c r="G10" s="88"/>
+      <c r="H10" s="98" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
       <c r="I10" s="76"/>
-      <c r="J10" s="81"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="100" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="117" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="112" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="str">
+      <c r="A12" s="115" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="98" t="str">
+      <c r="D12" s="88"/>
+      <c r="E12" s="116" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
       <c r="F12" s="76"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="94" t="str">
+      <c r="G12" s="88"/>
+      <c r="H12" s="113" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
       <c r="I12" s="76"/>
-      <c r="J12" s="81"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="87"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31564,17 +31564,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="79"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="str">
+      <c r="A15" s="118" t="str">
         <f>'input data'!B7</f>
         <v>CM STONE COMPANY LIMITED
 Address: No 6, niche 33/358 Da Nang, Dong Hai Ward, Hai Phong City, Vietnam
@@ -31584,216 +31584,216 @@
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="96"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="76"/>
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="76"/>
-      <c r="J15" s="81"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="96"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="76"/>
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="76"/>
-      <c r="J16" s="81"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="96"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="76"/>
       <c r="G17" s="76"/>
       <c r="H17" s="76"/>
       <c r="I17" s="76"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="96"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="76"/>
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
-      <c r="J18" s="81"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="96"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
-      <c r="J19" s="81"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="87"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="78" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="78" t="s">
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="79"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="85" t="str">
+      <c r="B22" s="88"/>
+      <c r="C22" s="122" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="88" t="s">
+      <c r="D22" s="88"/>
+      <c r="E22" s="123" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="76"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="88" t="str">
+      <c r="G22" s="88"/>
+      <c r="H22" s="123" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
       <c r="I22" s="76"/>
-      <c r="J22" s="81"/>
+      <c r="J22" s="88"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="87"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="79"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="82" t="s">
+      <c r="D24" s="86"/>
+      <c r="E24" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="84" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="79"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="105" t="str">
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="105" t="str">
+      <c r="D25" s="79"/>
+      <c r="E25" s="80" t="str">
         <f>'input data'!B21</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="105" t="str">
+      <c r="F25" s="81"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80" t="str">
         <f>'input data'!B22</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="I25" s="89"/>
-      <c r="J25" s="87"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="79"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="122" t="s">
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="79"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="79"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
-      <c r="B27" s="96"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="76"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="105" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="105" t="s">
+      <c r="I27" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="87"/>
+      <c r="J27" s="79"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="112" t="str">
+      <c r="B28" s="91" t="str">
         <f>'input data'!B18</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
@@ -31802,18 +31802,18 @@
       <c r="E28" s="28">
         <v>68022390</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="95">
         <f>'input data'!B26</f>
-        <v>449.71</v>
+        <v>446.13</v>
       </c>
       <c r="G28" s="92"/>
       <c r="H28" s="72">
         <f>'input data'!B27</f>
         <v>18</v>
       </c>
-      <c r="I28" s="119">
+      <c r="I28" s="103">
         <f>H28*F28</f>
-        <v>8094.78</v>
+        <v>8030.34</v>
       </c>
       <c r="J28" s="93"/>
     </row>
@@ -31833,19 +31833,19 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="69"/>
-      <c r="H29" s="120"/>
+      <c r="H29" s="104"/>
       <c r="I29" s="69"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="str">
+      <c r="A30" s="98" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>OOLU0147257</v>
       </c>
       <c r="B30" s="76"/>
       <c r="C30" s="3">
         <f>'input data'!B25</f>
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>76</v>
@@ -31855,7 +31855,7 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="120"/>
+      <c r="H30" s="104"/>
       <c r="I30" s="69"/>
       <c r="J30" s="20"/>
     </row>
@@ -31865,9 +31865,9 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="120"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="104"/>
       <c r="I31" s="69"/>
       <c r="J31" s="20"/>
     </row>
@@ -31879,7 +31879,7 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="70"/>
-      <c r="H32" s="121"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="69"/>
       <c r="J32" s="20"/>
     </row>
@@ -31894,15 +31894,15 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="71"/>
-      <c r="I33" s="118">
+      <c r="I33" s="101">
         <f>SUM(I28:J32)</f>
-        <v>8094.78</v>
+        <v>8030.34</v>
       </c>
-      <c r="J33" s="79"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -31911,32 +31911,32 @@
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="87"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="79"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="99" t="s">
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="79"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="100" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
-      <c r="D36" s="81"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="19" t="s">
         <v>82</v>
       </c>
@@ -31947,10 +31947,10 @@
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="76"/>
       <c r="C37" s="76"/>
-      <c r="D37" s="81"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="19"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -31959,12 +31959,12 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="89" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
-      <c r="D38" s="81"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31973,10 +31973,10 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="87"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="30" t="s">
         <v>84</v>
       </c>
@@ -32946,13 +32946,44 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F26:G26"/>
@@ -32968,44 +32999,13 @@
     <mergeCell ref="E35:J35"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="H29:H32"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -33021,8 +33021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33034,7 +33034,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="132" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="76"/>
@@ -33048,37 +33048,37 @@
       <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="143" t="s">
+      <c r="H2" s="86"/>
+      <c r="I2" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="133" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="81"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="107" t="str">
         <f>Invoice!E4</f>
         <v>BK020/25-26</v>
       </c>
-      <c r="H3" s="87"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="108">
         <f>Invoice!H4</f>
         <v>45908</v>
@@ -33094,12 +33094,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="143" t="s">
+      <c r="G4" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="79"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -33110,16 +33110,16 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="105" t="str">
+      <c r="G5" s="80" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="87"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="127" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="76"/>
@@ -33195,13 +33195,13 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="18"/>
       <c r="G11" s="35" t="s">
         <v>96</v>
@@ -33211,7 +33211,7 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="147" t="str">
+      <c r="A12" s="129" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
@@ -33226,11 +33226,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="29"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33238,21 +33238,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="79"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="str">
+      <c r="A15" s="118" t="str">
         <f>Invoice!A15</f>
         <v>CM STONE COMPANY LIMITED
 Address: No 6, niche 33/358 Da Nang, Dong Hai Ward, Hai Phong City, Vietnam
@@ -33264,93 +33264,93 @@
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="81"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="81"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="81"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="139" t="s">
+      <c r="F18" s="88"/>
+      <c r="G18" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="140" t="s">
+      <c r="H18" s="86"/>
+      <c r="I18" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="79"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="141" t="s">
+      <c r="A20" s="90"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="141" t="str">
+      <c r="H20" s="79"/>
+      <c r="I20" s="136" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="87"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="135" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="148" t="s">
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="131" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="92"/>
@@ -33358,66 +33358,66 @@
       <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="105" t="str">
+      <c r="A22" s="78"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="138" t="str">
+      <c r="E22" s="81"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="134" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="87"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="135" t="s">
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="79"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="42"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="105" t="str">
+      <c r="A24" s="78"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="87"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="135" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="136" t="s">
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="138" t="s">
         <v>104</v>
       </c>
       <c r="H25" s="92"/>
@@ -33425,25 +33425,25 @@
       <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="str">
+      <c r="A26" s="124" t="str">
         <f>Invoice!E25</f>
         <v>HAI PHONG</v>
       </c>
       <c r="B26" s="76"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="90" t="str">
+      <c r="C26" s="88"/>
+      <c r="D26" s="124" t="str">
         <f>Invoice!H25</f>
         <v>HAI PHONG</v>
       </c>
       <c r="E26" s="76"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="139" t="str">
+      <c r="F26" s="88"/>
+      <c r="G26" s="126" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="79"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
@@ -33461,32 +33461,32 @@
       <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="105" t="s">
+      <c r="C28" s="79"/>
+      <c r="D28" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="48"/>
       <c r="H28" s="49"/>
-      <c r="I28" s="105" t="s">
+      <c r="I28" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="87"/>
+      <c r="J28" s="79"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="112">
+      <c r="B29" s="91">
         <f>Invoice!E28</f>
         <v>68022390</v>
       </c>
       <c r="C29" s="93"/>
-      <c r="D29" s="137" t="str">
+      <c r="D29" s="139" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
@@ -33494,9 +33494,9 @@
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
       <c r="H29" s="93"/>
-      <c r="I29" s="134">
+      <c r="I29" s="137">
         <f>Invoice!F28</f>
-        <v>449.71</v>
+        <v>446.13</v>
       </c>
       <c r="J29" s="93"/>
     </row>
@@ -33511,9 +33511,9 @@
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="134">
+      <c r="I30" s="137">
         <f>I29</f>
-        <v>449.71</v>
+        <v>446.13</v>
       </c>
       <c r="J30" s="93"/>
     </row>
@@ -33530,14 +33530,14 @@
       <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="124" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="96" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="76"/>
@@ -33550,16 +33550,15 @@
       <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="str">
+      <c r="A33" s="98" t="str">
         <f>Invoice!A30</f>
         <v>OOLU0147257</v>
       </c>
       <c r="B33" s="76"/>
       <c r="C33" s="51">
-        <f>'input data'!B25</f>
-        <v>562</v>
+        <v>556</v>
       </c>
-      <c r="D33" s="132" t="s">
+      <c r="D33" s="147" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="76"/>
@@ -33627,64 +33626,64 @@
       <c r="J37" s="56"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="99" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="79"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="86"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="148" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="81"/>
+      <c r="F39" s="88"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="126"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131" t="s">
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="87"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34645,6 +34644,41 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:J26"/>
@@ -34661,41 +34695,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -34726,58 +34725,58 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="57"/>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="172"/>
-      <c r="R1" s="176"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="151"/>
+      <c r="R1" s="155"/>
       <c r="S1" s="76"/>
       <c r="T1" s="76"/>
       <c r="U1" s="76"/>
       <c r="V1" s="76"/>
-      <c r="W1" s="158"/>
+      <c r="W1" s="156"/>
       <c r="X1" s="76"/>
       <c r="Y1" s="76"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="57"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="175"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="79"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="158" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="76"/>
@@ -34788,22 +34787,22 @@
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
-      <c r="K4" s="81"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="87"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -34820,7 +34819,7 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="159" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="76"/>
@@ -34831,7 +34830,7 @@
       <c r="H7" s="76"/>
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
-      <c r="K7" s="81"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -34851,10 +34850,10 @@
       <c r="B9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="169">
+      <c r="C9" s="161">
         <v>45908</v>
       </c>
-      <c r="D9" s="169"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -34869,7 +34868,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -34910,8 +34909,8 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="145" t="s">
-        <v>160</v>
+      <c r="B13" s="127" t="s">
+        <v>159</v>
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="76"/>
@@ -34925,8 +34924,8 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="101" t="s">
-        <v>161</v>
+      <c r="B14" s="118" t="s">
+        <v>160</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -34940,7 +34939,7 @@
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="96"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
@@ -34981,42 +34980,42 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52"/>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="100" t="s">
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="117" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="93"/>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="117" t="s">
         <v>127</v>
       </c>
       <c r="I18" s="93"/>
-      <c r="J18" s="100" t="s">
+      <c r="J18" s="117" t="s">
         <v>128</v>
       </c>
       <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="100">
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="117">
         <v>103.41</v>
       </c>
       <c r="G19" s="93"/>
-      <c r="H19" s="156">
+      <c r="H19" s="164">
         <v>2419</v>
       </c>
       <c r="I19" s="93"/>
-      <c r="J19" s="161">
+      <c r="J19" s="168">
         <f>F19*H19</f>
         <v>250148.78999999998</v>
       </c>
@@ -35024,56 +35023,56 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="B20" s="102"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="149" t="s">
+      <c r="F20" s="156"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="150"/>
-      <c r="J20" s="165">
+      <c r="I20" s="175"/>
+      <c r="J20" s="172">
         <f>J19*0.001</f>
         <v>250.14878999999999</v>
       </c>
-      <c r="K20" s="166"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="32"/>
       <c r="G21" s="62"/>
-      <c r="H21" s="152" t="s">
+      <c r="H21" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154">
+      <c r="I21" s="178"/>
+      <c r="J21" s="162">
         <f>J19+J20</f>
         <v>250398.93878999999</v>
       </c>
-      <c r="K21" s="155"/>
+      <c r="K21" s="163"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
-      <c r="B22" s="102"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
       <c r="E22" s="76"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="157"/>
+      <c r="H22" s="165"/>
       <c r="I22" s="76"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="81"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="166" t="s">
         <v>129</v>
       </c>
       <c r="C23" s="92"/>
@@ -35083,7 +35082,7 @@
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="160">
+      <c r="J23" s="167">
         <f>J21</f>
         <v>250398.93878999999</v>
       </c>
@@ -35104,7 +35103,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="176" t="s">
         <v>130</v>
       </c>
       <c r="C25" s="76"/>
@@ -35260,7 +35259,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
-      <c r="B35" s="144" t="s">
+      <c r="B35" s="133" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="76"/>
@@ -35275,7 +35274,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="133" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="76"/>
@@ -35362,7 +35361,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N42" s="74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36322,20 +36321,11 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -36350,11 +36340,20 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
